--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -622,7 +622,12 @@
       <c r="O2" s="19" t="n"/>
       <c r="P2" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"] == 0 and len(res["d"]["d"]) == 3失败
+检查点res["d"]["d"][0]["ab"] == "英文简介"失败
+检查点res["d"]["d"][1]["ab"] == "英文简介"失败
+检查点res["d"]["d"][2]["ab"] == "英文简介"失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -681,7 +686,12 @@
       <c r="O3" s="19" t="n"/>
       <c r="P3" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"] == 0 and len(res["d"]["d"]) == 3失败
+检查点res["d"]["d"][0]["ab"] == "中文简介"失败
+检查点res["d"]["d"][1]["ab"] == "中文简介"失败
+检查点res["d"]["d"][2]["ab"] == "中文简介"失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -740,7 +750,9 @@
       <c r="O4" s="19" t="n"/>
       <c r="P4" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"] == 0 and res["m"] == ""失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -799,7 +811,9 @@
       <c r="O5" s="19" t="n"/>
       <c r="P5" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"] == 0 and res["m"] == ""失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -916,7 +930,10 @@
       <c r="O7" s="19" t="n"/>
       <c r="P7" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+保存{"helpContentId":res["d"]["list"][0]["id"]}失败
+检查点res["r"]==0 and res["d"]["count"] &lt;= 10失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -986,7 +1003,9 @@
       <c r="P8" s="20" t="inlineStr">
         <is>
           <t>False
-更换数据失败req_data["d"]["id"]=data_pool["helpContentId"]</t>
+更换数据失败req_data["d"]["id"]=data_pool["helpContentId"]
+检查点res["r"]==0 or res["r"]==614失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1064,9 @@
       <c r="O9" s="19" t="n"/>
       <c r="P9" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0 and res["d"]["count"] &lt;= 10失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1125,9 @@
       <c r="O10" s="19" t="n"/>
       <c r="P10" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0 and res["d"]["count"] &lt;= 10失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1186,9 @@
       <c r="O11" s="19" t="n"/>
       <c r="P11" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0 and res["d"]["count"] &lt;= 10失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1302,11 @@
       <c r="O13" s="19" t="n"/>
       <c r="P13" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0失败
+检查点res["d"]["qe"]==1失败
+检查点res["d"]["sd"]==0失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1365,10 @@
       <c r="O14" s="19" t="n"/>
       <c r="P14" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0失败
+检查点len(res["d"]["al"]) &gt;0失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1644,14 @@
       <c r="O19" s="19" t="n"/>
       <c r="P19" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0 and len(res["d"]["l"]) &gt;0失败
+检查点res["d"]["l"][0]["n"] == "btc" and res["d"]["l"][0]["mw"] == 0.01失败
+检查点res["d"]["l"][1]["n"] == "usd" and res["d"]["l"][1]["mw"] == 10失败
+检查点res["d"]["l"][2]["n"] == "lsk" and res["d"]["l"][2]["mw"] == 1失败
+检查点res["d"]["l"][3]["n"] == "eth" and res["d"]["l"][3]["mw"] == 0.1失败
+检查点res["d"]["l"][4]["n"] == "xas" and res["d"]["l"][4]["mw"] == 10失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1710,9 @@
       <c r="O20" s="19" t="n"/>
       <c r="P20" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0 and res["d"]["n"] == "eth"失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1771,9 @@
       <c r="O21" s="19" t="n"/>
       <c r="P21" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0 and res["d"]["n"] == "btc"失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1832,9 @@
       <c r="O22" s="19" t="n"/>
       <c r="P22" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0 and res["d"]["n"] == "eos"失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1893,10 @@
       <c r="O23" s="19" t="n"/>
       <c r="P23" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0失败
+检查点len(res["d"]["coins"])==3失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1955,10 @@
       <c r="O24" s="19" t="n"/>
       <c r="P24" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"]==0失败
+检查点len(res["d"]["prices"])&gt;0失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -1966,7 +2017,9 @@
       <c r="O25" s="19" t="n"/>
       <c r="P25" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"] == 0失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2078,9 @@
       <c r="O26" s="19" t="n"/>
       <c r="P26" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"] == 0失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2139,9 @@
       <c r="O27" s="19" t="n"/>
       <c r="P27" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"] == 0失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2200,9 @@
       <c r="O28" s="19" t="n"/>
       <c r="P28" s="20" t="inlineStr">
         <is>
-          <t>Flase执行失败，日志为空。</t>
+          <t>False
+检查点res["r"] == 0失败
+请求响应体：None</t>
         </is>
       </c>
     </row>
